--- a/1  临时/3 公式/number.xlsx
+++ b/1  临时/3 公式/number.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,30 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +126,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,32 +493,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="7" width="4.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5">
         <v>8</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>7</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="5">
         <v>6</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="5">
         <v>5</v>
       </c>
       <c r="H1" s="2">
@@ -501,21 +544,21 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <f t="shared" ref="D2:K6" si="0">(MOD($B2,2^D$1)-MOD(MOD($B2,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="E2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -544,21 +587,21 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -581,28 +624,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <f>HEX2DEC(A4)</f>
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -632,21 +675,21 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -675,19 +718,19 @@
         <f>HEX2DEC(A6)</f>
         <v>6</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -710,657 +753,877 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f>HEX2DEC(A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:K14" si="1">(MOD($B10,2^D$1)-MOD(MOD($B10,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <f>HEX2DEC(A11)</f>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <f>(MOD($B11,2^D$1)-MOD(MOD($B11,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f>(MOD($B11,2^E$1)-MOD(MOD($B11,2^E$1),2^(E$1-1)))/2^(E$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f>(MOD($B11,2^F$1)-MOD(MOD($B11,2^F$1),2^(F$1-1)))/2^(F$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f>(MOD($B11,2^G$1)-MOD(MOD($B11,2^G$1),2^(G$1-1)))/2^(G$1-1)</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
         <f>(MOD($B11,2^H$1)-MOD(MOD($B11,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <f>(MOD($B11,2^I$1)-MOD(MOD($B11,2^I$1),2^(I$1-1)))/2^(I$1-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <f>(MOD($B11,2^J$1)-MOD(MOD($B11,2^J$1),2^(J$1-1)))/2^(J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f>(MOD($B11,2^K$1)-MOD(MOD($B11,2^K$1),2^(K$1-1)))/2^(K$1-1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <f>HEX2DEC(A12)</f>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <f>(MOD($B12,2^D$1)-MOD(MOD($B12,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <f>(MOD($B12,2^E$1)-MOD(MOD($B12,2^E$1),2^(E$1-1)))/2^(E$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <f>(MOD($B12,2^F$1)-MOD(MOD($B12,2^F$1),2^(F$1-1)))/2^(F$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f>(MOD($B12,2^G$1)-MOD(MOD($B12,2^G$1),2^(G$1-1)))/2^(G$1-1)</f>
+        <v>19</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <f>(MOD($B12,2^H$1)-MOD(MOD($B12,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <f>(MOD($B12,2^I$1)-MOD(MOD($B12,2^I$1),2^(I$1-1)))/2^(I$1-1)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <f>(MOD($B12,2^J$1)-MOD(MOD($B12,2^J$1),2^(J$1-1)))/2^(J$1-1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <f>(MOD($B12,2^K$1)-MOD(MOD($B12,2^K$1),2^(K$1-1)))/2^(K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <f>HEX2DEC(A13)</f>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3">
-        <f>(MOD($B13,2^D$1)-MOD(MOD($B13,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <f>(MOD($B13,2^E$1)-MOD(MOD($B13,2^E$1),2^(E$1-1)))/2^(E$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <f>(MOD($B13,2^F$1)-MOD(MOD($B13,2^F$1),2^(F$1-1)))/2^(F$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f>(MOD($B13,2^G$1)-MOD(MOD($B13,2^G$1),2^(G$1-1)))/2^(G$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <f>(MOD($B13,2^H$1)-MOD(MOD($B13,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <f>(MOD($B13,2^I$1)-MOD(MOD($B13,2^I$1),2^(I$1-1)))/2^(I$1-1)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <f>(MOD($B13,2^J$1)-MOD(MOD($B13,2^J$1),2^(J$1-1)))/2^(J$1-1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>(MOD($B13,2^K$1)-MOD(MOD($B13,2^K$1),2^(K$1-1)))/2^(K$1-1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <f>(MOD($B14,2^D$1)-MOD(MOD($B14,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <f>(MOD($B14,2^E$1)-MOD(MOD($B14,2^E$1),2^(E$1-1)))/2^(E$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <f>(MOD($B14,2^F$1)-MOD(MOD($B14,2^F$1),2^(F$1-1)))/2^(F$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f>(MOD($B14,2^G$1)-MOD(MOD($B14,2^G$1),2^(G$1-1)))/2^(G$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f>(MOD($B14,2^H$1)-MOD(MOD($B14,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <f>(MOD($B14,2^I$1)-MOD(MOD($B14,2^I$1),2^(I$1-1)))/2^(I$1-1)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <f>(MOD($B14,2^J$1)-MOD(MOD($B14,2^J$1),2^(J$1-1)))/2^(J$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <f>(MOD($B14,2^K$1)-MOD(MOD($B14,2^K$1),2^(K$1-1)))/2^(K$1-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3">
-        <f>(MOD($B15,2^D$1)-MOD(MOD($B15,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <f>(MOD($B15,2^E$1)-MOD(MOD($B15,2^E$1),2^(E$1-1)))/2^(E$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <f>(MOD($B15,2^F$1)-MOD(MOD($B15,2^F$1),2^(F$1-1)))/2^(F$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <f>(MOD($B15,2^G$1)-MOD(MOD($B15,2^G$1),2^(G$1-1)))/2^(G$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <f>(MOD($B15,2^H$1)-MOD(MOD($B15,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <f>(MOD($B15,2^I$1)-MOD(MOD($B15,2^I$1),2^(I$1-1)))/2^(I$1-1)</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <f>(MOD($B15,2^J$1)-MOD(MOD($B15,2^J$1),2^(J$1-1)))/2^(J$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <f>(MOD($B15,2^K$1)-MOD(MOD($B15,2^K$1),2^(K$1-1)))/2^(K$1-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:K25" si="1">(MOD($B16,2^D$1)-MOD(MOD($B16,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17:K21" si="2">(MOD($B17,2^D$1)-MOD(MOD($B17,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:K31" si="3">(MOD($B22,2^D$1)-MOD(MOD($B22,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="1"/>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>

--- a/1  临时/3 公式/number.xlsx
+++ b/1  临时/3 公式/number.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hex2Bi" sheetId="12" r:id="rId1"/>
+    <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
+    <sheet name="led8bit" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +98,160 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.04s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+  </si>
+  <si>
+    <t>LED01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块使能</t>
+  </si>
+  <si>
+    <t>LED02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无 中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.08s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,不闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不淡出,不淡入,不闪烁,15mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +259,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="&quot;0x&quot;\ General"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +291,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +325,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -172,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,6 +379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -803,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:K14" si="1">(MOD($B10,2^D$1)-MOD(MOD($B10,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <f t="shared" ref="D10:K13" si="1">(MOD($B10,2^D$1)-MOD(MOD($B10,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
         <v>0</v>
       </c>
       <c r="E10" s="6">
@@ -1632,4 +1830,1596 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1">
+        <f>HEX2DEC(A2)</f>
+        <v>85</v>
+      </c>
+      <c r="C2" s="14">
+        <f>(MOD($B2,2^C$34)-MOD(MOD($B2,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <f>(MOD($B2,2^D$34)-MOD(MOD($B2,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <f>(MOD($B2,2^E$34)-MOD(MOD($B2,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <f>(MOD($B2,2^F$34)-MOD(MOD($B2,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <f>(MOD($B2,2^G$34)-MOD(MOD($B2,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <f>(MOD($B2,2^H$34)-MOD(MOD($B2,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="14">
+        <f>(MOD($B2,2^I$34)-MOD(MOD($B2,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <f>(MOD($B2,2^J$34)-MOD(MOD($B2,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>HEX2DEC(A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <f>(MOD($B6,2^C$34)-MOD(MOD($B6,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <f>(MOD($B6,2^D$34)-MOD(MOD($B6,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <f>(MOD($B6,2^E$34)-MOD(MOD($B6,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(MOD($B6,2^F$34)-MOD(MOD($B6,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f>(MOD($B6,2^G$34)-MOD(MOD($B6,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <f>(MOD($B6,2^H$34)-MOD(MOD($B6,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f>(MOD($B6,2^I$34)-MOD(MOD($B6,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>(MOD($B6,2^J$34)-MOD(MOD($B6,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <f>255/15</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f>40*6</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f>HEX2DEC(A10)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <f>(MOD($B10,2^C$34)-MOD(MOD($B10,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(MOD($B10,2^D$34)-MOD(MOD($B10,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <f>(MOD($B10,2^E$34)-MOD(MOD($B10,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f>(MOD($B10,2^F$34)-MOD(MOD($B10,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f>(MOD($B10,2^G$34)-MOD(MOD($B10,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f>(MOD($B10,2^H$34)-MOD(MOD($B10,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <f>(MOD($B10,2^I$34)-MOD(MOD($B10,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f>(MOD($B10,2^J$34)-MOD(MOD($B10,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10">
+        <f>255/40</f>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f>255-40*6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>80*(6*2+5+5)</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>HEX2DEC(A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <f>(MOD($B14,2^C$34)-MOD(MOD($B14,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <f>(MOD($B14,2^D$34)-MOD(MOD($B14,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>(MOD($B14,2^E$34)-MOD(MOD($B14,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f>(MOD($B14,2^F$34)-MOD(MOD($B14,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>(MOD($B14,2^G$34)-MOD(MOD($B14,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <f>(MOD($B14,2^H$34)-MOD(MOD($B14,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f>(MOD($B14,2^I$34)-MOD(MOD($B14,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>(MOD($B14,2^J$34)-MOD(MOD($B14,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f>256/40</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <f>256-6*40</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1">
+        <f>HEX2DEC(A19)</f>
+        <v>115</v>
+      </c>
+      <c r="C19" s="14">
+        <f>(MOD($B19,2^C$34)-MOD(MOD($B19,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <f>(MOD($B19,2^D$34)-MOD(MOD($B19,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <f>(MOD($B19,2^E$34)-MOD(MOD($B19,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <f>(MOD($B19,2^F$34)-MOD(MOD($B19,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <f>(MOD($B19,2^G$34)-MOD(MOD($B19,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <f>(MOD($B19,2^H$34)-MOD(MOD($B19,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f>(MOD($B19,2^I$34)-MOD(MOD($B19,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <f>(MOD($B19,2^J$34)-MOD(MOD($B19,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19">
+        <f>50*17*2</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1">
+        <f>HEX2DEC(A20)</f>
+        <v>99</v>
+      </c>
+      <c r="C20" s="14">
+        <f>(MOD($B20,2^C$34)-MOD(MOD($B20,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <f>(MOD($B20,2^D$34)-MOD(MOD($B20,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <f>(MOD($B20,2^E$34)-MOD(MOD($B20,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <f>(MOD($B20,2^F$34)-MOD(MOD($B20,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f>(MOD($B20,2^G$34)-MOD(MOD($B20,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f>(MOD($B20,2^H$34)-MOD(MOD($B20,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f>(MOD($B20,2^I$34)-MOD(MOD($B20,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <f>(MOD($B20,2^J$34)-MOD(MOD($B20,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20">
+        <f>30*(7*2+2)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <f>HEX2DEC(A21)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="14">
+        <f>(MOD($B21,2^C$34)-MOD(MOD($B21,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <f>(MOD($B21,2^D$34)-MOD(MOD($B21,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <f>(MOD($B21,2^E$34)-MOD(MOD($B21,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f>(MOD($B21,2^F$34)-MOD(MOD($B21,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <f>(MOD($B21,2^G$34)-MOD(MOD($B21,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f>(MOD($B21,2^H$34)-MOD(MOD($B21,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f>(MOD($B21,2^I$34)-MOD(MOD($B21,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <f>(MOD($B21,2^J$34)-MOD(MOD($B21,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21">
+        <f>20*(7*2+2)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>80*(12*2+11+11)</f>
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f>40*(12*2+8+8)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <f>HEX2DEC(A25)</f>
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
+        <f>(MOD($B25,2^C$34)-MOD(MOD($B25,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f>(MOD($B25,2^D$34)-MOD(MOD($B25,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <f>(MOD($B25,2^E$34)-MOD(MOD($B25,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <f>(MOD($B25,2^F$34)-MOD(MOD($B25,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <f>(MOD($B25,2^G$34)-MOD(MOD($B25,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <f>(MOD($B25,2^H$34)-MOD(MOD($B25,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <f>(MOD($B25,2^I$34)-MOD(MOD($B25,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <f>(MOD($B25,2^J$34)-MOD(MOD($B25,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1">
+        <f>HEX2DEC(A30)</f>
+        <v>255</v>
+      </c>
+      <c r="C30" s="14">
+        <f>(MOD($B30,2^C$34)-MOD(MOD($B30,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="14">
+        <f>(MOD($B30,2^D$34)-MOD(MOD($B30,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <f>(MOD($B30,2^E$34)-MOD(MOD($B30,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="14">
+        <f>(MOD($B30,2^F$34)-MOD(MOD($B30,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <f>(MOD($B30,2^G$34)-MOD(MOD($B30,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <f>(MOD($B30,2^H$34)-MOD(MOD($B30,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <f>(MOD($B30,2^I$34)-MOD(MOD($B30,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
+        <f>(MOD($B30,2^J$34)-MOD(MOD($B30,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="5">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
+        <v>6</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f>HEX2DEC(A35)</f>
+        <v>52</v>
+      </c>
+      <c r="C35" s="3">
+        <f>(MOD($B35,2^C$34)-MOD(MOD($B35,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <f>(MOD($B35,2^D$34)-MOD(MOD($B35,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>(MOD($B35,2^E$34)-MOD(MOD($B35,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="11">
+        <f>(MOD($B35,2^F$34)-MOD(MOD($B35,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <f>(MOD($B35,2^G$34)-MOD(MOD($B35,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <f>(MOD($B35,2^H$34)-MOD(MOD($B35,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <f>(MOD($B35,2^I$34)-MOD(MOD($B35,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>(MOD($B35,2^J$34)-MOD(MOD($B35,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="M35">
+        <f>(K35+L35)*2</f>
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <f>HEX2DEC(A36)</f>
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <f>(MOD($B36,2^C$34)-MOD(MOD($B36,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f>(MOD($B36,2^D$34)-MOD(MOD($B36,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>(MOD($B36,2^E$34)-MOD(MOD($B36,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="11">
+        <f>(MOD($B36,2^F$34)-MOD(MOD($B36,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <f>(MOD($B36,2^G$34)-MOD(MOD($B36,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <f>(MOD($B36,2^H$34)-MOD(MOD($B36,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <f>(MOD($B36,2^I$34)-MOD(MOD($B36,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <f>(MOD($B36,2^J$34)-MOD(MOD($B36,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="M36">
+        <f>(K36+L36)*2</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
+        <f>HEX2DEC(A37)</f>
+        <v>34</v>
+      </c>
+      <c r="C37" s="3">
+        <f>(MOD($B37,2^C$34)-MOD(MOD($B37,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <f>(MOD($B37,2^D$34)-MOD(MOD($B37,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>(MOD($B37,2^E$34)-MOD(MOD($B37,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <f>(MOD($B37,2^F$34)-MOD(MOD($B37,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f>(MOD($B37,2^G$34)-MOD(MOD($B37,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <f>(MOD($B37,2^H$34)-MOD(MOD($B37,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <f>(MOD($B37,2^I$34)-MOD(MOD($B37,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
+        <f>(MOD($B37,2^J$34)-MOD(MOD($B37,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M39" si="0">(K37+L37)*2</f>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
+        <f>HEX2DEC(A38)</f>
+        <v>68</v>
+      </c>
+      <c r="C38" s="3">
+        <f>(MOD($B38,2^C$34)-MOD(MOD($B38,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <f>(MOD($B38,2^D$34)-MOD(MOD($B38,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="11">
+        <f>(MOD($B38,2^E$34)-MOD(MOD($B38,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <f>(MOD($B38,2^F$34)-MOD(MOD($B38,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f>(MOD($B38,2^G$34)-MOD(MOD($B38,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <f>(MOD($B38,2^H$34)-MOD(MOD($B38,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="12">
+        <f>(MOD($B38,2^I$34)-MOD(MOD($B38,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <f>(MOD($B38,2^J$34)-MOD(MOD($B38,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <f>HEX2DEC(A39)</f>
+        <v>18</v>
+      </c>
+      <c r="C39" s="3">
+        <f>(MOD($B39,2^C$34)-MOD(MOD($B39,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <f>(MOD($B39,2^D$34)-MOD(MOD($B39,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <f>(MOD($B39,2^E$34)-MOD(MOD($B39,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <f>(MOD($B39,2^F$34)-MOD(MOD($B39,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <f>(MOD($B39,2^G$34)-MOD(MOD($B39,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <f>(MOD($B39,2^H$34)-MOD(MOD($B39,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <f>(MOD($B39,2^I$34)-MOD(MOD($B39,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="11">
+        <f>(MOD($B39,2^J$34)-MOD(MOD($B39,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="5">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5">
+        <v>6</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
+        <f>HEX2DEC(A44)</f>
+        <v>52</v>
+      </c>
+      <c r="C44" s="3">
+        <f>(MOD($B44,2^C$34)-MOD(MOD($B44,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <f>(MOD($B44,2^D$34)-MOD(MOD($B44,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <f>(MOD($B44,2^E$34)-MOD(MOD($B44,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="11">
+        <f>(MOD($B44,2^F$34)-MOD(MOD($B44,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <f>(MOD($B44,2^G$34)-MOD(MOD($B44,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <f>(MOD($B44,2^H$34)-MOD(MOD($B44,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="12">
+        <f>(MOD($B44,2^I$34)-MOD(MOD($B44,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <f>(MOD($B44,2^J$34)-MOD(MOD($B44,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1">
+        <f>HEX2DEC(A45)</f>
+        <v>17</v>
+      </c>
+      <c r="C45" s="3">
+        <f>(MOD($B45,2^C$34)-MOD(MOD($B45,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <f>(MOD($B45,2^D$34)-MOD(MOD($B45,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <f>(MOD($B45,2^E$34)-MOD(MOD($B45,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <f>(MOD($B45,2^F$34)-MOD(MOD($B45,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <f>(MOD($B45,2^G$34)-MOD(MOD($B45,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <f>(MOD($B45,2^H$34)-MOD(MOD($B45,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <f>(MOD($B45,2^I$34)-MOD(MOD($B45,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <f>(MOD($B45,2^J$34)-MOD(MOD($B45,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
+        <f>HEX2DEC(A46)</f>
+        <v>33</v>
+      </c>
+      <c r="C46" s="3">
+        <f>(MOD($B46,2^C$34)-MOD(MOD($B46,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <f>(MOD($B46,2^D$34)-MOD(MOD($B46,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <f>(MOD($B46,2^E$34)-MOD(MOD($B46,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="11">
+        <f>(MOD($B46,2^F$34)-MOD(MOD($B46,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f>(MOD($B46,2^G$34)-MOD(MOD($B46,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="12">
+        <f>(MOD($B46,2^H$34)-MOD(MOD($B46,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <f>(MOD($B46,2^I$34)-MOD(MOD($B46,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <f>(MOD($B46,2^J$34)-MOD(MOD($B46,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="5">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <f>HEX2DEC(A51)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <f>(MOD($B51,2^C$34)-MOD(MOD($B51,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <f>(MOD($B51,2^D$34)-MOD(MOD($B51,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <f>(MOD($B51,2^E$34)-MOD(MOD($B51,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <f>(MOD($B51,2^F$34)-MOD(MOD($B51,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <f>(MOD($B51,2^G$34)-MOD(MOD($B51,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f>(MOD($B51,2^H$34)-MOD(MOD($B51,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="14">
+        <f>(MOD($B51,2^I$34)-MOD(MOD($B51,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <f>(MOD($B51,2^J$34)-MOD(MOD($B51,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:B54" si="1">HEX2DEC(A52)</f>
+        <v>80</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" ref="C52:J54" si="2">(MOD($B52,2^C$34)-MOD(MOD($B52,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>128</v>
+      </c>
+      <c r="D60" s="5">
+        <v>64</v>
+      </c>
+      <c r="E60" s="5">
+        <v>32</v>
+      </c>
+      <c r="F60" s="5">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>1</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="str">
+        <f>DEC2HEX(B62)</f>
+        <v>21</v>
+      </c>
+      <c r="B62" s="9">
+        <f>SUMPRODUCT(C62:J62,C$60:J$60)</f>
+        <v>33</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>